--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\YES24_티켓랭킹_RE-Framework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA01_티켓랭킹_배혜빈\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37E9E6E-566F-456A-AF44-70A2221748DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4F2E1C-7CC2-4258-90CD-B4B5D2B15ABD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -190,38 +190,6 @@
     <t>접속사이트 URL입력</t>
   </si>
   <si>
-    <t>ACME_Main</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ACME_WorkItems</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ACME_Update</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/update/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SHA_URL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.sha1-online.com/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Folder</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -233,23 +201,14 @@
     <t>http://ticket.yes24.com/New/Rank/Ranking.aspx</t>
   </si>
   <si>
-    <t>List</t>
+    <t>Mail List</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>"", "15456", "15457", "15458", "15459", "15460", "999"</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>arr_Ranking</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>arr_Genre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"전체", "콘서트", "뮤지컬", "연극", "클래식무용", "전시행사", "아동가족"</t>
+    <t>rpa.sj.jeong@gmail.com</t>
+  </si>
+  <si>
+    <t>Yes24_수신인</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -694,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -776,130 +735,100 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
-        <v>53</v>
-      </c>
+    <row r="6" spans="1:26">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="A7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="A10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="A13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
+    <row r="15" spans="1:26" ht="27">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="27">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1875,22 +1804,16 @@
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{B57695E5-8DBC-465F-B07B-87864FD2A949}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{DE19D7A2-B9BB-4386-8F36-8F59F99BF15F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA01_티켓랭킹_배혜빈\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4F2E1C-7CC2-4258-90CD-B4B5D2B15ABD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E10D69-BFE3-486E-B6E1-A6DA865B415A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -201,14 +201,55 @@
     <t>http://ticket.yes24.com/New/Rank/Ranking.aspx</t>
   </si>
   <si>
-    <t>Mail List</t>
+    <t>rpa.sj.jeong@gmail.com</t>
+  </si>
+  <si>
+    <t>Mail</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>rpa.sj.jeong@gmail.com</t>
-  </si>
-  <si>
-    <t>Yes24_수신인</t>
+    <t>Receive</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>[티켓랭킹] {0} 수행결과_배혜빈</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+    &lt;span&gt;안녕하세요&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;오늘날짜 &lt;b&gt;&lt;i&gt;{0}&lt;/i&gt;&lt;/b&gt; 티켓랭킹과제 수행 결과 안내드립니다.&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;p&gt;처리 성공 : {1}&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;p&gt;처리 실패 : {2}&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;추출한 데이터는 엑셀 파일로 첨부드리오니, 참고부탁드립니다.&lt;/span&gt;
+&lt;div&gt;
+    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;감사합니다.&lt;/span&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Title</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -653,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -765,7 +806,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
@@ -775,60 +816,76 @@
         <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
+    <row r="13" spans="1:26" ht="409.5" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="27">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+    <row r="17" spans="1:3" ht="27">
       <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1804,11 +1861,13 @@
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA01_티켓랭킹_배혜빈\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E10D69-BFE3-486E-B6E1-A6DA865B415A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47B2E76-AA40-49C9-8339-8F977BA3015F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1881,7 +1881,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1942,7 +1942,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
@@ -3036,6 +3036,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
